--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_264.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1176923076923077</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1098901098901099</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:23.420000', '0:00:31.440000'), ('0:00:13.120000', '0:00:19.960000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:23.980000', '0:00:31.920000'), ('0:00:45.580000', '0:00:49.600000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06782744282744282</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05330188679245283</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.43, 14.59)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:04:42.120000', '0:04:44.720000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:28.190000', '0:00:36.120000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1439393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.6, 11.32)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.08, 87.62)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:14', '0:00:16.380000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2073732718894009</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'G:min7', 'Bb:maj6', 'Bb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj6/5', 'G:maj6/2', 'G:maj6/5', 'G:maj6/2']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.26, 13.45)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(87.266961, 90.564195)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.98, 15.02)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(23.18, 30.14)]</t>
+          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4727272727272727</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['C', 'F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369)]</t>
+          <t>[['G', 'C', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.54, 12.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:10.203514', '0:01:44.302018')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:08.158789', '0:00:28.202000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1917016806722689</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'G'], ['D', 'G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'G'], ['D', 'G', 'C', 'D', 'G']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.608639, 26.921541), (14.054444, 25.606371)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.151133, 8.504874), (12.870226, 18.129546)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.525</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(56.76, 62.32)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(103.0, 122.84)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4178571428571429</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B'], ['E', 'F#', 'B']]</t>
+          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853), (60.040123, 71.429511)]</t>
+          <t>[['Ab', 'Eb', 'Bb/3'], ['Bb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285), (26.48873, 32.328548)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:25.942000', '0:00:29.102000'), ('0:00:10.286000', '0:00:15.006000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['G', 'C:min', 'C:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (53.795396, 59.623605)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.42, 26.04), (12.3, 17.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.38, 23.16)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(75.058526, 99.567188)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_270</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07631578947368421</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.038752, 9.647913)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(71.384512, 77.839659)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.56, 20.92)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D'], ['A', 'D', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['D', 'G', 'E:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.00678, 29.410731), (25.88757, 31.612706)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(22.829118, 26.567531), (56.381952, 61.374243)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(53.28, 62.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.58, 32.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
